--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Ctf1</t>
+  </si>
+  <si>
+    <t>Lifr</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ctf1</t>
-  </si>
-  <si>
-    <t>Lifr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.397225</v>
+        <v>0.2720863333333334</v>
       </c>
       <c r="H2">
-        <v>1.191675</v>
+        <v>0.8162590000000001</v>
       </c>
       <c r="I2">
-        <v>0.2502673203813375</v>
+        <v>0.1601964374275199</v>
       </c>
       <c r="J2">
-        <v>0.3297344111653286</v>
+        <v>0.2007414748833069</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N2">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O2">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P2">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q2">
-        <v>11.49527507579167</v>
+        <v>6.476769289650111</v>
       </c>
       <c r="R2">
-        <v>103.457475682125</v>
+        <v>58.290923606851</v>
       </c>
       <c r="S2">
-        <v>0.05979307762686237</v>
+        <v>0.03260605594587344</v>
       </c>
       <c r="T2">
-        <v>0.0824027208211742</v>
+        <v>0.0419700999020166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.397225</v>
+        <v>0.2720863333333334</v>
       </c>
       <c r="H3">
-        <v>1.191675</v>
+        <v>0.8162590000000001</v>
       </c>
       <c r="I3">
-        <v>0.2502673203813375</v>
+        <v>0.1601964374275199</v>
       </c>
       <c r="J3">
-        <v>0.3297344111653286</v>
+        <v>0.2007414748833069</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>107.117709</v>
       </c>
       <c r="O3">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P3">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q3">
-        <v>14.183277319175</v>
+        <v>9.715088225625667</v>
       </c>
       <c r="R3">
-        <v>127.649495872575</v>
+        <v>87.435794030631</v>
       </c>
       <c r="S3">
-        <v>0.07377481584018049</v>
+        <v>0.04890875312017783</v>
       </c>
       <c r="T3">
-        <v>0.1016713939906113</v>
+        <v>0.06295472405323883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.397225</v>
+        <v>0.2720863333333334</v>
       </c>
       <c r="H4">
-        <v>1.191675</v>
+        <v>0.8162590000000001</v>
       </c>
       <c r="I4">
-        <v>0.2502673203813375</v>
+        <v>0.1601964374275199</v>
       </c>
       <c r="J4">
-        <v>0.3297344111653286</v>
+        <v>0.2007414748833069</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N4">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O4">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P4">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q4">
-        <v>7.660165550549999</v>
+        <v>9.19533430972578</v>
       </c>
       <c r="R4">
-        <v>68.94148995495</v>
+        <v>82.75800878753201</v>
       </c>
       <c r="S4">
-        <v>0.03984462054007084</v>
+        <v>0.04629215146246554</v>
       </c>
       <c r="T4">
-        <v>0.05491112471377519</v>
+        <v>0.05958666772774308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.397225</v>
+        <v>0.2720863333333334</v>
       </c>
       <c r="H5">
-        <v>1.191675</v>
+        <v>0.8162590000000001</v>
       </c>
       <c r="I5">
-        <v>0.2502673203813375</v>
+        <v>0.1601964374275199</v>
       </c>
       <c r="J5">
-        <v>0.3297344111653286</v>
+        <v>0.2007414748833069</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N5">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O5">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P5">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q5">
-        <v>6.347381216137499</v>
+        <v>2.528359395593501</v>
       </c>
       <c r="R5">
-        <v>38.084287296825</v>
+        <v>15.170156373561</v>
       </c>
       <c r="S5">
-        <v>0.03301612665042378</v>
+        <v>0.01272854168755639</v>
       </c>
       <c r="T5">
-        <v>0.03033370834830717</v>
+        <v>0.01092267782239665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.397225</v>
+        <v>0.2720863333333334</v>
       </c>
       <c r="H6">
-        <v>1.191675</v>
+        <v>0.8162590000000001</v>
       </c>
       <c r="I6">
-        <v>0.2502673203813375</v>
+        <v>0.1601964374275199</v>
       </c>
       <c r="J6">
-        <v>0.3297344111653286</v>
+        <v>0.2007414748833069</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N6">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O6">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P6">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q6">
-        <v>8.428027162766666</v>
+        <v>3.905389280895667</v>
       </c>
       <c r="R6">
-        <v>75.8522444649</v>
+        <v>35.14850352806101</v>
       </c>
       <c r="S6">
-        <v>0.04383867972380002</v>
+        <v>0.01966093521144671</v>
       </c>
       <c r="T6">
-        <v>0.06041546329146068</v>
+        <v>0.02530730537791175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +841,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.1475635</v>
+        <v>0.397225</v>
       </c>
       <c r="H7">
-        <v>2.295127</v>
+        <v>1.191675</v>
       </c>
       <c r="I7">
-        <v>0.7230099870663453</v>
+        <v>0.2338744069853316</v>
       </c>
       <c r="J7">
-        <v>0.6350576708369707</v>
+        <v>0.2930670253945926</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N7">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O7">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P7">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q7">
-        <v>33.20928466093083</v>
+        <v>9.455582166008332</v>
       </c>
       <c r="R7">
-        <v>199.255707965585</v>
+        <v>85.10023949407498</v>
       </c>
       <c r="S7">
-        <v>0.1727392622248194</v>
+        <v>0.04760231950802225</v>
       </c>
       <c r="T7">
-        <v>0.1587049400466898</v>
+        <v>0.0612730993480447</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,25 +903,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.1475635</v>
+        <v>0.397225</v>
       </c>
       <c r="H8">
-        <v>2.295127</v>
+        <v>1.191675</v>
       </c>
       <c r="I8">
-        <v>0.7230099870663453</v>
+        <v>0.2338744069853316</v>
       </c>
       <c r="J8">
-        <v>0.6350576708369707</v>
+        <v>0.2930670253945926</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>107.117709</v>
       </c>
       <c r="O8">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P8">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q8">
-        <v>40.9747910173405</v>
+        <v>14.183277319175</v>
       </c>
       <c r="R8">
-        <v>245.848746104043</v>
+        <v>127.649495872575</v>
       </c>
       <c r="S8">
-        <v>0.2131318166716923</v>
+        <v>0.07140299632161839</v>
       </c>
       <c r="T8">
-        <v>0.1958157731558435</v>
+        <v>0.09190902738731625</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,25 +965,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.1475635</v>
+        <v>0.397225</v>
       </c>
       <c r="H9">
-        <v>2.295127</v>
+        <v>1.191675</v>
       </c>
       <c r="I9">
-        <v>0.7230099870663453</v>
+        <v>0.2338744069853316</v>
       </c>
       <c r="J9">
-        <v>0.6350576708369707</v>
+        <v>0.2930670253945926</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N9">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O9">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P9">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q9">
-        <v>22.129841751573</v>
+        <v>13.42447680643333</v>
       </c>
       <c r="R9">
-        <v>132.779050509438</v>
+        <v>120.8202912579</v>
       </c>
       <c r="S9">
-        <v>0.1151091502376124</v>
+        <v>0.06758296030308227</v>
       </c>
       <c r="T9">
-        <v>0.1057570268159966</v>
+        <v>0.0869919256810133</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.1475635</v>
+        <v>0.397225</v>
       </c>
       <c r="H10">
-        <v>2.295127</v>
+        <v>1.191675</v>
       </c>
       <c r="I10">
-        <v>0.7230099870663453</v>
+        <v>0.2338744069853316</v>
       </c>
       <c r="J10">
-        <v>0.6350576708369707</v>
+        <v>0.2930670253945926</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N10">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O10">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P10">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q10">
-        <v>18.33727233740325</v>
+        <v>3.6912091416375</v>
       </c>
       <c r="R10">
-        <v>73.349089349613</v>
+        <v>22.147254849825</v>
       </c>
       <c r="S10">
-        <v>0.09538196703481301</v>
+        <v>0.01858268627423252</v>
       </c>
       <c r="T10">
-        <v>0.05842172827350174</v>
+        <v>0.01594626471990451</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,25 +1089,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.1475635</v>
+        <v>0.397225</v>
       </c>
       <c r="H11">
-        <v>2.295127</v>
+        <v>1.191675</v>
       </c>
       <c r="I11">
-        <v>0.7230099870663453</v>
+        <v>0.2338744069853316</v>
       </c>
       <c r="J11">
-        <v>0.6350576708369707</v>
+        <v>0.2930670253945926</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N11">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O11">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P11">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q11">
-        <v>24.34815620617933</v>
+        <v>5.701566256925</v>
       </c>
       <c r="R11">
-        <v>146.088937237076</v>
+        <v>51.31409631232501</v>
       </c>
       <c r="S11">
-        <v>0.1266477908974082</v>
+        <v>0.02870344457837617</v>
       </c>
       <c r="T11">
-        <v>0.1163582025449391</v>
+        <v>0.03694670825831382</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1151,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.04241433333333333</v>
+        <v>1.029143</v>
       </c>
       <c r="H12">
-        <v>0.127243</v>
+        <v>2.058286</v>
       </c>
       <c r="I12">
-        <v>0.02672269255231714</v>
+        <v>0.6059291555871485</v>
       </c>
       <c r="J12">
-        <v>0.03520791799770064</v>
+        <v>0.5061914997221006</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N12">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O12">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P12">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q12">
-        <v>1.227426342307222</v>
+        <v>24.49781911277566</v>
       </c>
       <c r="R12">
-        <v>11.046837080765</v>
+        <v>146.986914676654</v>
       </c>
       <c r="S12">
-        <v>0.006384501291438394</v>
+        <v>0.1233295837508831</v>
       </c>
       <c r="T12">
-        <v>0.008798682027774911</v>
+        <v>0.1058321795495328</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,25 +1213,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.04241433333333333</v>
+        <v>1.029143</v>
       </c>
       <c r="H13">
-        <v>0.127243</v>
+        <v>2.058286</v>
       </c>
       <c r="I13">
-        <v>0.02672269255231714</v>
+        <v>0.6059291555871485</v>
       </c>
       <c r="J13">
-        <v>0.03520791799770064</v>
+        <v>0.5061914997221006</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>107.117709</v>
       </c>
       <c r="O13">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P13">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q13">
-        <v>1.514442071809667</v>
+        <v>36.746480131129</v>
       </c>
       <c r="R13">
-        <v>13.629978646287</v>
+        <v>220.478880786774</v>
       </c>
       <c r="S13">
-        <v>0.007877423703570257</v>
+        <v>0.1849931244091367</v>
       </c>
       <c r="T13">
-        <v>0.01085612535762465</v>
+        <v>0.1587471956237478</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04241433333333333</v>
+        <v>1.029143</v>
       </c>
       <c r="H14">
-        <v>0.127243</v>
+        <v>2.058286</v>
       </c>
       <c r="I14">
-        <v>0.02672269255231714</v>
+        <v>0.6059291555871485</v>
       </c>
       <c r="J14">
-        <v>0.03520791799770064</v>
+        <v>0.5061914997221006</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N14">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O14">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P14">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q14">
-        <v>0.8179264020379999</v>
+        <v>34.78055594185467</v>
       </c>
       <c r="R14">
-        <v>7.361337618342</v>
+        <v>208.683335651128</v>
       </c>
       <c r="S14">
-        <v>0.004254472948899854</v>
+        <v>0.1750960551707344</v>
       </c>
       <c r="T14">
-        <v>0.005863222977703565</v>
+        <v>0.1502542746489354</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04241433333333333</v>
+        <v>1.029143</v>
       </c>
       <c r="H15">
-        <v>0.127243</v>
+        <v>2.058286</v>
       </c>
       <c r="I15">
-        <v>0.02672269255231714</v>
+        <v>0.6059291555871485</v>
       </c>
       <c r="J15">
-        <v>0.03520791799770064</v>
+        <v>0.5061914997221006</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N15">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O15">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P15">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q15">
-        <v>0.6777517595695</v>
+        <v>9.563300521498499</v>
       </c>
       <c r="R15">
-        <v>4.066510557417</v>
+        <v>38.253202085994</v>
       </c>
       <c r="S15">
-        <v>0.003525349615776008</v>
+        <v>0.0481446069616023</v>
       </c>
       <c r="T15">
-        <v>0.003238930120514107</v>
+        <v>0.02754272215601852</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04241433333333333</v>
+        <v>1.029143</v>
       </c>
       <c r="H16">
-        <v>0.127243</v>
+        <v>2.058286</v>
       </c>
       <c r="I16">
-        <v>0.02672269255231714</v>
+        <v>0.6059291555871485</v>
       </c>
       <c r="J16">
-        <v>0.03520791799770064</v>
+        <v>0.5061914997221006</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N16">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O16">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P16">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q16">
-        <v>0.8999160511648888</v>
+        <v>14.771796846499</v>
       </c>
       <c r="R16">
-        <v>8.099244460484</v>
+        <v>88.63078107899399</v>
       </c>
       <c r="S16">
-        <v>0.004680944992632627</v>
+        <v>0.0743657852947921</v>
       </c>
       <c r="T16">
-        <v>0.006450957514083397</v>
+        <v>0.06381512774386618</v>
       </c>
     </row>
   </sheetData>
